--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{73CF137C-489F-441A-B329-6A28349E39F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3936B25D-66E7-4B85-839A-00D124D8710F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="6_{83963DF0-96D6-4AA2-915D-5B6DB630928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1806073A-FDE9-4450-BA81-823752FFCB14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="283">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -3500,13 +3500,6 @@
     </rPh>
     <rPh sb="172" eb="173">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要修正</t>
-    <rPh sb="0" eb="3">
-      <t>ヨウシュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3596,6 +3589,117 @@
     </rPh>
     <rPh sb="84" eb="86">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録機能</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しくアカウント情報を入力しアカウント登録完了画面まで進んでいる</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="25">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面でブラウザバックし、アカウント登録確認画面で再度登録するを押す</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="26" eb="32">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二重登録のためエラー表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ニジュウトウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面が表示されている
+2.XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既に「account_data 」に登録がある任意のアカウント情報でアカウント登録する</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「account_data 」から野比花子のアカウント情報を入力し登録する</t>
+    <rPh sb="17" eb="19">
+      <t>ノビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4025,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J69"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4170,13 +4274,13 @@
         <v>12</v>
       </c>
       <c r="H4" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -4203,13 +4307,13 @@
         <v>12</v>
       </c>
       <c r="H5" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -4236,13 +4340,13 @@
         <v>12</v>
       </c>
       <c r="H6" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K6" s="15"/>
     </row>
@@ -4269,13 +4373,13 @@
         <v>12</v>
       </c>
       <c r="H7" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -4302,13 +4406,13 @@
         <v>12</v>
       </c>
       <c r="H8" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -4335,13 +4439,13 @@
         <v>12</v>
       </c>
       <c r="H9" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -4368,13 +4472,13 @@
         <v>12</v>
       </c>
       <c r="H10" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -4401,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="H11" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -4434,13 +4538,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -4467,13 +4571,13 @@
         <v>12</v>
       </c>
       <c r="H13" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K13" s="8"/>
     </row>
@@ -4500,13 +4604,13 @@
         <v>12</v>
       </c>
       <c r="H14" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K14" s="8"/>
     </row>
@@ -4533,13 +4637,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K15" s="8"/>
     </row>
@@ -4566,13 +4670,13 @@
         <v>12</v>
       </c>
       <c r="H16" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K16" s="8"/>
     </row>
@@ -4599,13 +4703,13 @@
         <v>12</v>
       </c>
       <c r="H17" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K17" s="8"/>
     </row>
@@ -4632,13 +4736,13 @@
         <v>12</v>
       </c>
       <c r="H18" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -4665,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="H19" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K19" s="8"/>
     </row>
@@ -4698,13 +4802,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K20" s="8"/>
     </row>
@@ -4731,13 +4835,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K21" s="8"/>
     </row>
@@ -4764,13 +4868,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K22" s="8"/>
     </row>
@@ -4797,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>13</v>
@@ -4830,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>13</v>
@@ -4851,7 +4955,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>107</v>
@@ -4863,7 +4967,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>13</v>
@@ -4896,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>13</v>
@@ -4929,7 +5033,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>13</v>
@@ -4962,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>13</v>
@@ -4995,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>13</v>
@@ -5028,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>13</v>
@@ -5049,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>137</v>
@@ -5061,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>13</v>
@@ -5094,13 +5198,13 @@
         <v>12</v>
       </c>
       <c r="H32" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K32" s="8"/>
     </row>
@@ -5127,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>13</v>
@@ -5160,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>13</v>
@@ -5193,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>13</v>
@@ -5226,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>13</v>
@@ -5259,7 +5363,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>13</v>
@@ -5292,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>13</v>
@@ -5325,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>13</v>
@@ -5358,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>13</v>
@@ -5391,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>13</v>
@@ -5424,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>13</v>
@@ -5457,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>13</v>
@@ -5490,7 +5594,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>13</v>
@@ -5523,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>13</v>
@@ -5556,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>13</v>
@@ -5589,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>13</v>
@@ -5622,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>13</v>
@@ -5655,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>13</v>
@@ -5688,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>13</v>
@@ -5721,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>13</v>
@@ -5754,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>13</v>
@@ -5787,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>13</v>
@@ -5820,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="H54" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>13</v>
@@ -5853,7 +5957,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>13</v>
@@ -5886,7 +5990,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>13</v>
@@ -5919,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>13</v>
@@ -5952,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="H58" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>13</v>
@@ -5985,7 +6089,7 @@
         <v>12</v>
       </c>
       <c r="H59" s="11">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>13</v>
@@ -6024,7 +6128,7 @@
         <v>13</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K60" s="8"/>
     </row>
@@ -6057,7 +6161,7 @@
         <v>13</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K61" s="8"/>
     </row>
@@ -6090,7 +6194,7 @@
         <v>13</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K62" s="8"/>
     </row>
@@ -6123,7 +6227,7 @@
         <v>13</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K63" s="8"/>
     </row>
@@ -6156,7 +6260,7 @@
         <v>13</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K64" s="8"/>
     </row>
@@ -6189,7 +6293,7 @@
         <v>13</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K65" s="8"/>
     </row>
@@ -6222,7 +6326,7 @@
         <v>13</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K66" s="8"/>
     </row>
@@ -6255,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K67" s="8"/>
     </row>
@@ -6288,7 +6392,7 @@
         <v>13</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="K68" s="8"/>
     </row>
@@ -6321,8 +6425,9 @@
         <v>13</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>273</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" ht="56.25">
       <c r="A70" s="7" t="s">
@@ -6355,6 +6460,7 @@
       <c r="J70" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K70" s="8"/>
     </row>
     <row r="71" spans="1:11" ht="56.25">
       <c r="A71" s="7" t="s">
@@ -6387,6 +6493,7 @@
       <c r="J71" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" ht="56.25">
       <c r="A72" s="7" t="s">
@@ -6419,6 +6526,7 @@
       <c r="J72" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K72" s="8"/>
     </row>
     <row r="73" spans="1:11" ht="56.25">
       <c r="A73" s="7" t="s">
@@ -6451,6 +6559,7 @@
       <c r="J73" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" ht="56.25">
       <c r="A74" s="7" t="s">
@@ -6483,6 +6592,7 @@
       <c r="J74" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K74" s="8"/>
     </row>
     <row r="75" spans="1:11" ht="56.25">
       <c r="A75" s="7" t="s">
@@ -6515,6 +6625,7 @@
       <c r="J75" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K75" s="8"/>
     </row>
     <row r="76" spans="1:11" ht="56.25">
       <c r="A76" s="7" t="s">
@@ -6547,6 +6658,7 @@
       <c r="J76" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" ht="75">
       <c r="A77" s="7" t="s">
@@ -6579,6 +6691,7 @@
       <c r="J77" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" ht="75">
       <c r="A78" s="7" t="s">
@@ -6611,6 +6724,7 @@
       <c r="J78" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K78" s="8"/>
     </row>
     <row r="79" spans="1:11" ht="112.5">
       <c r="A79" s="7" t="s">
@@ -6643,6 +6757,7 @@
       <c r="J79" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K79" s="8"/>
     </row>
     <row r="80" spans="1:11" ht="37.5">
       <c r="A80" s="7" t="s">
@@ -6675,8 +6790,9 @@
       <c r="J80" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="56.25">
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="1:11" ht="56.25">
       <c r="A81" s="7" t="s">
         <v>260</v>
       </c>
@@ -6707,8 +6823,9 @@
       <c r="J81" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="75">
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="1:11" ht="75">
       <c r="A82" s="7" t="s">
         <v>261</v>
       </c>
@@ -6739,8 +6856,9 @@
       <c r="J82" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="75">
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="1:11" ht="75">
       <c r="A83" s="7" t="s">
         <v>261</v>
       </c>
@@ -6771,6 +6889,130 @@
       <c r="J83" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="1:11" ht="37.5">
+      <c r="B84" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="11">
+        <v>45918</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="1:11" ht="56.25">
+      <c r="B85" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="11">
+        <v>45918</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="G86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="G87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="G88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="G89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="G90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="G91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="G92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="G93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K83" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}"/>

--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="6_{83963DF0-96D6-4AA2-915D-5B6DB630928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1806073A-FDE9-4450-BA81-823752FFCB14}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="6_{83963DF0-96D6-4AA2-915D-5B6DB630928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB884A2F-20FC-447D-915D-A8074C432C0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="314">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -3603,25 +3603,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新しくアカウント情報を入力しアカウント登録完了画面まで進んでいる</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="25">
-      <t>トウロクカンリョウガメン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録完了画面でブラウザバックし、アカウント登録確認画面で再度登録するを押す</t>
     <rPh sb="5" eb="11">
       <t>トウロクカンリョウガメン</t>
@@ -3655,36 +3636,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.アカウント一覧画面が表示されている
-2.XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>既に「account_data 」に登録がある任意のアカウント情報でアカウント登録する</t>
-    <rPh sb="0" eb="1">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「account_data 」から野比花子のアカウント情報を入力し登録する</t>
     <rPh sb="17" eb="19">
       <t>ノビ</t>
@@ -3702,6 +3653,402 @@
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除機能</t>
+    <rPh sb="5" eb="9">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、新しくアカウント情報を入力しアカウント登録完了画面まで進んでいる</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="37">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.管理者権限でログインする
+2.XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で既に「account_data 」に登録がある任意のアカウント情報でアカウント登録する</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から任意のアカウントを選択後削除し、削除完了する。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>サクジョカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再度アカウント一覧から事前に削除したアカウントの削除フラグが無効になってること確認し、再度削除ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>サイドサクジョ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除済のためエラー表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既に削除フラグ無効の「えええ」のアカウントを選択し削除ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン済のためログイン画面には戻らない</t>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１.ログイン画面でテーブルの「account_data 」からアカウント権限が管理者のアカウントでログインする
+2.TOPページに移行後ブラウザバックする</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>イコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者のメールアドレス「nobi@mail」と「nobi1」でログインし、TOPページに移行後にブラウザバック</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6回目以降はログイン画面操作不可のエラーが出る</t>
+    <rPh sb="1" eb="5">
+      <t>カイメイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>ガメンソウサフカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録のないメアド「qqq」とパスワード「aaa」を入力しログインボタンを押す。これを6回繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１.ログイン画面でテーブルの「account_data 」から登録のないメールアドレスとパスワードでログインボタンを押す
+2.「1」を5回繰り返す</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>削除フラグが立っているアカウントでログインする</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除済のためエラー表示される</t>
+    <rPh sb="0" eb="3">
+      <t>サクジョスミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メアド「mama@」パスワード「mama」でログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン済</t>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押し、ログアウトする</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトし、再度ログイン画面に移行する</t>
+    <rPh sb="7" eb="9">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新機能</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者としてログインし、アカウント一覧から削除フラグが無効になってるアカウントがある</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から削除フラグが無効のアカウントを選択し、更新ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から削除フラグが無効の「野比」アカウントを選択し、更新ボタンを押す。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ノビ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
 </sst>
 </file>
@@ -3740,12 +4087,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -3803,7 +4156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3849,6 +4202,22 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4129,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6892,20 +7261,23 @@
       <c r="K83" s="8"/>
     </row>
     <row r="84" spans="1:11" ht="37.5">
+      <c r="A84" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="B84" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="F84" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>12</v>
@@ -6917,25 +7289,28 @@
         <v>13</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K84" s="8"/>
     </row>
     <row r="85" spans="1:11" ht="56.25">
+      <c r="A85" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="B85" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>12</v>
@@ -6946,73 +7321,253 @@
       <c r="I85" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J85" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" ht="37.5">
+      <c r="A86" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="G86" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H86" s="11">
+        <v>45918</v>
+      </c>
       <c r="I86" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J86" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" ht="56.25">
+      <c r="A87" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="G87" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H87" s="11">
+        <v>45918</v>
+      </c>
       <c r="I87" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J87" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="56.25">
+      <c r="A88" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="G88" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H88" s="11">
+        <v>45918</v>
+      </c>
       <c r="I88" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J88" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="37.5">
+      <c r="A89" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="G89" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H89" s="11">
+        <v>45918</v>
+      </c>
       <c r="I89" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J89" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11">
-      <c r="G90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K90" s="8"/>
-    </row>
-    <row r="91" spans="1:11">
+    <row r="90" spans="1:11" s="22" customFormat="1">
+      <c r="A90" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="20">
+        <v>45918</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:11" ht="37.5">
+      <c r="A91" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="G91" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H91" s="11">
+        <v>45918</v>
+      </c>
       <c r="I91" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J91" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="K91" s="8"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="G92" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="K92" s="8"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="G93" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="8"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="8"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K83" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}"/>
